--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1776456.590539271</v>
+        <v>1774204.510828062</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283196</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>151.7611701629553</v>
       </c>
       <c r="E2" t="n">
-        <v>304.9201090199881</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>107.7336662990908</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>105.3804150401591</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>399.957146489229</v>
       </c>
       <c r="H5" t="n">
-        <v>36.44558365834215</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145.3583847641782</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>150.3013276789172</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>93.52676208877482</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>100.9068926882552</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>160.2383728284221</v>
       </c>
       <c r="D10" t="n">
-        <v>54.45803047044427</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560541</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>86.26216629269601</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922764</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>38.37250637580733</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892458</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>149.2479410620325</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>5.421623586785671</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>55.30088041042008</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.40545032729</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>61.44013021076709</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>126.1348013633896</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503955</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>3.006892987834117</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890385</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>166.7797097944361</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2962,7 +2962,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>110.1444095748051</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688093255</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>6.600826611595375</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>179.9868975105681</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>91.66636605273473</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,10 +3673,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,10 +3712,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>5.890337106873084</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>242.9192109362943</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>108.376498265149</v>
+        <v>124.4121185570315</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3946,16 +3946,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>176.5196562849262</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1867.116698829639</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1498.154181889227</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D2" t="n">
-        <v>1498.154181889227</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
         <v>779.1681669784198</v>
@@ -4322,13 +4322,13 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810555</v>
@@ -4346,34 +4346,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.721789066531</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2257.256030805451</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1867.116698829639</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,31 +4425,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>639.3706644025392</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>639.3706644025392</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>489.2540249902034</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>724.611684898784</v>
       </c>
       <c r="T4" t="n">
-        <v>639.3706644025392</v>
+        <v>502.84506946831</v>
       </c>
       <c r="U4" t="n">
-        <v>639.3706644025392</v>
+        <v>502.84506946831</v>
       </c>
       <c r="V4" t="n">
-        <v>639.3706644025392</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="W4" t="n">
-        <v>639.3706644025392</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X4" t="n">
-        <v>639.3706644025392</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y4" t="n">
-        <v>639.3706644025392</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1638.360256348809</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="C5" t="n">
-        <v>1269.397739408397</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="D5" t="n">
-        <v>911.132040801647</v>
+        <v>817.0352339990388</v>
       </c>
       <c r="E5" t="n">
-        <v>525.3437882034027</v>
+        <v>817.0352339990388</v>
       </c>
       <c r="F5" t="n">
-        <v>114.3578834137952</v>
+        <v>810.0897332498354</v>
       </c>
       <c r="G5" t="n">
-        <v>103.3258372991957</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649822</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2788.565186649822</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2415.099428388743</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y5" t="n">
-        <v>2024.960096412931</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>553.2677753977071</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>384.3315924698002</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4723,52 +4723,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>507.434506214537</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>218.3316393401806</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>218.3316393401806</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>218.3316393401806</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>700.0944266746548</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3113.388998905705</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3113.388998905705</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2782.326111562134</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2782.326111562134</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2782.326111562134</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2392.186779586323</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>1072.936681635989</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I9" t="n">
-        <v>827.0643955080129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>920.7416649986308</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290.4564109463977</v>
+        <v>228.3690586831148</v>
       </c>
       <c r="C10" t="n">
-        <v>121.5202280184908</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4990,22 +4990,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="X10" t="n">
-        <v>692.8974549201675</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="Y10" t="n">
-        <v>472.1048757766374</v>
+        <v>410.0175235133545</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,19 +5033,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191922</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349506</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061502</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.9745311434702</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C13" t="n">
-        <v>869.9745311434702</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>719.8578917311345</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>571.9447981487414</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429878</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2408.20297612995</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235164</v>
+        <v>2225.348141784855</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258105</v>
+        <v>2005.746676807796</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258105</v>
+        <v>1716.671450151994</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052218</v>
+        <v>1461.986961946107</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.405126015257</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.41557511724</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.62299597371</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,22 +5349,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408906</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.2406881998</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.485192177545</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1431.068022140585</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1203.078471242567</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,46 +5495,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>228.9331431646415</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2283.159972732779</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
         <v>2283.159972732779</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171274</v>
+        <v>695.5020655703091</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892205</v>
+        <v>526.5658826424022</v>
       </c>
       <c r="D19" t="n">
-        <v>414.4022433768847</v>
+        <v>526.5658826424022</v>
       </c>
       <c r="E19" t="n">
-        <v>266.4891497944916</v>
+        <v>378.6527890600091</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>231.7628415620988</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>231.7628415620988</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782927</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038313</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797714</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487564</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831762</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625875</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588915</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.896109690897</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473671</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2149.810879820877</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2149.810879820877</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>641.1291986799072</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>641.1291986799072</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>491.0125592675714</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>464.5051450557706</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782948</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038334</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1560.976963588655</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1271.559793551694</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1043.570242653677</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>822.7776635101469</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C25" t="n">
-        <v>408.925855915485</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2443.925817935984</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2261.070983590888</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2041.469518613829</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,28 +6303,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>634.4644740681603</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>465.5282911402533</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>465.5282911402533</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1808.996727182795</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1554.312238976908</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1264.895068939947</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1036.90551804193</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>816.1129388984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,16 +6482,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6500,13 +6500,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249857</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6713,37 +6713,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397185</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.6461798836018</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="C34" t="n">
-        <v>565.7099969556949</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D34" t="n">
-        <v>415.5933575433592</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>267.680263960966</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138415</v>
+        <v>734.4896977334693</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373306</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1341.109076706663</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1113.119525808646</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2191.112710026075</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,19 +7488,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D43" t="n">
-        <v>747.3737171343192</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E43" t="n">
-        <v>599.4606235519261</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F43" t="n">
-        <v>452.5706760540157</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="G43" t="n">
-        <v>285.3745767688957</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>59.15888173023524</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>28.00274033431432</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>63.36835372228708</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>102.8897022617955</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>139.9994244361456</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>84.9938324358038</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>84.99383243580209</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>126.0028419604384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>63.36835372228757</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>119.404764594808</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>176.3785887617859</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
     </row>
     <row r="32">
@@ -24932,7 +24932,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>138.8202214113359</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>38.59775584152669</v>
       </c>
     </row>
     <row r="35">
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>194.8566322838563</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,10 +25561,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25600,10 +25600,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>211.5151132204152</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>43.26526345294982</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>31.91821458107486</v>
+        <v>15.8825942891924</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,16 +25834,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>882931.1937920643</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
     <row r="6">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>882931.1937920644</v>
+        <v>882931.1937920643</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26314,46 @@
         <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907544</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="L2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="O2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.954790754</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>4.897497092315462e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.7441040526</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93596.74410405256</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405257</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.74410405252</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405254</v>
-      </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189195</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189195</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26442,13 +26442,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-976072.2357346469</v>
+        <v>-976072.2357346467</v>
       </c>
       <c r="C6" t="n">
-        <v>352672.5099929457</v>
+        <v>352672.5099929455</v>
       </c>
       <c r="D6" t="n">
-        <v>352672.5099929457</v>
+        <v>352672.5099929454</v>
       </c>
       <c r="E6" t="n">
-        <v>102242.3791876002</v>
+        <v>102207.6412621641</v>
       </c>
       <c r="F6" t="n">
-        <v>427654.8409949545</v>
+        <v>427620.1030695193</v>
       </c>
       <c r="G6" t="n">
-        <v>427654.840994955</v>
+        <v>427620.1030695189</v>
       </c>
       <c r="H6" t="n">
-        <v>427654.8409949549</v>
+        <v>427620.1030695189</v>
       </c>
       <c r="I6" t="n">
-        <v>427654.8409949549</v>
+        <v>427620.1030695188</v>
       </c>
       <c r="J6" t="n">
-        <v>210123.6385976776</v>
+        <v>210088.9006722415</v>
       </c>
       <c r="K6" t="n">
-        <v>427654.840994955</v>
+        <v>427620.1030695188</v>
       </c>
       <c r="L6" t="n">
-        <v>427654.8409949546</v>
+        <v>427620.1030695191</v>
       </c>
       <c r="M6" t="n">
-        <v>342599.8130594435</v>
+        <v>342565.0751340073</v>
       </c>
       <c r="N6" t="n">
-        <v>427654.840994955</v>
+        <v>427620.1030695193</v>
       </c>
       <c r="O6" t="n">
-        <v>427654.8409949546</v>
+        <v>427620.1030695188</v>
       </c>
       <c r="P6" t="n">
-        <v>427654.8409949549</v>
+        <v>427620.1030695189</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>202.9218714577276</v>
       </c>
       <c r="E2" t="n">
-        <v>77.01026105227368</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>38.70029634747833</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>84.38861029128275</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>10.96457916422446</v>
       </c>
       <c r="H5" t="n">
-        <v>258.1621807289783</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.47359541775907</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>75.40832771011998</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>289.2070795747057</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>103.011077451365</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>7.008448270205776</v>
       </c>
       <c r="D10" t="n">
-        <v>94.15744254776808</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28062,10 +28062,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.541226902200529e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28333,13 +28333,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-7.333857380491618e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28773,7 +28773,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29259,7 +29259,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31601,7 +31601,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026443</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>151.9914336104087</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>314.5984986256099</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060501</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>263.3189197138078</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32324,10 +32324,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,13 +32561,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>268.6704608606964</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32707,7 +32707,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,13 +32792,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>240.4469701760392</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,19 +33023,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N27" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33260,22 +33260,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>307.9814458135827</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>322.7581251332982</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>602.4605829984174</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,10 +33977,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M39" t="n">
-        <v>322.7581251332984</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,7 +33989,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34208,22 +34208,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>752.2150000824579</v>
       </c>
       <c r="O42" t="n">
-        <v>669.466988500007</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>171.5999003578897</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597762</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>20.64972152707542</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>180.6240912112796</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>136.4812930471411</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,10 +35972,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295035</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,13 +36209,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>134.6960534463662</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295242</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,13 +36440,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>101.892590396165</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,19 +36671,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N27" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36908,22 +36908,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>169.4270660337085</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>180.6240912112798</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>471.1188709150841</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M39" t="n">
-        <v>180.6240912112801</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,7 +37637,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37716,7 +37716,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066202</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>620.8732879991246</v>
       </c>
       <c r="O42" t="n">
-        <v>526.8707440555626</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>29.46586643587134</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
